--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Cxcl13</t>
@@ -88,7 +88,7 @@
     <t>Ccr10</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,51 +534,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H2">
         <v>23.303222</v>
       </c>
       <c r="I2">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J2">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1003636666666667</v>
+        <v>0.2651005</v>
       </c>
       <c r="N2">
-        <v>0.301091</v>
+        <v>0.530201</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="Q2">
-        <v>0.7795989350224446</v>
+        <v>2.059231934603666</v>
       </c>
       <c r="R2">
-        <v>7.016390415202</v>
+        <v>12.355391607622</v>
       </c>
       <c r="S2">
-        <v>0.9880684546028148</v>
+        <v>0.2569361678381857</v>
       </c>
       <c r="T2">
-        <v>0.9880684546028148</v>
+        <v>0.2606058787614821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,55 +587,179 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7.767740666666666</v>
+      </c>
+      <c r="H3">
+        <v>23.303222</v>
+      </c>
+      <c r="I3">
+        <v>0.957755623847744</v>
+      </c>
+      <c r="J3">
+        <v>0.9714348434930534</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.7230885</v>
+      </c>
+      <c r="N3">
+        <v>1.446177</v>
+      </c>
+      <c r="O3">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P3">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q3">
+        <v>5.616763947049</v>
+      </c>
+      <c r="R3">
+        <v>33.700583682294</v>
+      </c>
+      <c r="S3">
+        <v>0.7008194560095584</v>
+      </c>
+      <c r="T3">
+        <v>0.7108289647315714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.09380033333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.281401</v>
-      </c>
-      <c r="I3">
-        <v>0.01193154539718527</v>
-      </c>
-      <c r="J3">
-        <v>0.01193154539718528</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.1003636666666667</v>
-      </c>
-      <c r="N3">
-        <v>0.301091</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.00941414538788889</v>
-      </c>
-      <c r="R3">
-        <v>0.08472730849100001</v>
-      </c>
-      <c r="S3">
-        <v>0.01193154539718527</v>
-      </c>
-      <c r="T3">
-        <v>0.01193154539718528</v>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.342617</v>
+      </c>
+      <c r="H4">
+        <v>0.685234</v>
+      </c>
+      <c r="I4">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J4">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.2651005</v>
+      </c>
+      <c r="N4">
+        <v>0.530201</v>
+      </c>
+      <c r="O4">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P4">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q4">
+        <v>0.0908279380085</v>
+      </c>
+      <c r="R4">
+        <v>0.363311752034</v>
+      </c>
+      <c r="S4">
+        <v>0.01133285762151891</v>
+      </c>
+      <c r="T4">
+        <v>0.00766314669822248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.342617</v>
+      </c>
+      <c r="H5">
+        <v>0.685234</v>
+      </c>
+      <c r="I5">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J5">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.7230885</v>
+      </c>
+      <c r="N5">
+        <v>1.446177</v>
+      </c>
+      <c r="O5">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P5">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q5">
+        <v>0.2477424126045</v>
+      </c>
+      <c r="R5">
+        <v>0.990969650418</v>
+      </c>
+      <c r="S5">
+        <v>0.03091151853073711</v>
+      </c>
+      <c r="T5">
+        <v>0.02090200980872403</v>
       </c>
     </row>
   </sheetData>
